--- a/sample_output.xlsx
+++ b/sample_output.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="95">
   <si>
     <t>page_id</t>
   </si>
@@ -31,6 +31,730 @@
     <t>nom</t>
   </si>
   <si>
+    <t>[[3063, 933], [3356, 929], [3363, 2624], [3071, 2628]]</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Nom Na Tong"/>
+        <family val="2"/>
+      </rPr>
+      <t>型</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Nom Na Tong"/>
+        <family val="2"/>
+      </rPr>
+      <t>敎</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Nom Na Tong"/>
+        <family val="2"/>
+      </rPr>
+      <t>要</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Nom Na Tong"/>
+        <family val="2"/>
+      </rPr>
+      <t>理</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Nom Na Tong"/>
+        <family val="2"/>
+      </rPr>
+      <t>目</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Nom Na Tong"/>
+        <family val="2"/>
+      </rPr>
+      <t>錄</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Nom Na Tong"/>
+        <family val="2"/>
+      </rPr>
+      <t>聖</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Nom Na Tong"/>
+        <family val="2"/>
+      </rPr>
+      <t>敎</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Nom Na Tong"/>
+        <family val="2"/>
+      </rPr>
+      <t>要</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Nom Na Tong"/>
+        <family val="2"/>
+      </rPr>
+      <t>理</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Nom Na Tong"/>
+        <family val="2"/>
+      </rPr>
+      <t>目</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Nom Na Tong"/>
+        <family val="2"/>
+      </rPr>
+      <t>錄</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Nom Na Tong"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">thánh </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Nom Na Tong"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">giáo </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Nom Na Tong"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">yếu </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Nom Na Tong"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">lý </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Nom Na Tong"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">mục </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Nom Na Tong"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">lục </t>
+    </r>
+  </si>
+  <si>
+    <t>[[2733, 1187], [2994, 1183], [3002, 2340], [2740, 2344]]</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Nom Na Tong"/>
+        <family val="2"/>
+      </rPr>
+      <t>天</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Nom Na Tong"/>
+        <family val="2"/>
+      </rPr>
+      <t>主</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Nom Na Tong"/>
+        <family val="2"/>
+      </rPr>
+      <t>一</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Nom Na Tong"/>
+        <family val="2"/>
+      </rPr>
+      <t>體</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Nom Na Tong"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">thiên </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Nom Na Tong"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">chúa </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Nom Na Tong"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">nhất </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Nom Na Tong"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">thể </t>
+    </r>
+  </si>
+  <si>
+    <t>[[2398, 1206], [2671, 1206], [2671, 2332], [2398, 2332]]</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Nom Na Tong"/>
+        <family val="2"/>
+      </rPr>
+      <t>降</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Nom Na Tong"/>
+        <family val="2"/>
+      </rPr>
+      <t>生</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Nom Na Tong"/>
+        <family val="2"/>
+      </rPr>
+      <t>救</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Nom Na Tong"/>
+        <family val="2"/>
+      </rPr>
+      <t>世</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Nom Na Tong"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">giáng </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Nom Na Tong"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">sinh </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Nom Na Tong"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">cứu </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Nom Na Tong"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">thế </t>
+    </r>
+  </si>
+  <si>
+    <t>[[2056, 1206], [2318, 1202], [2333, 2324], [2068, 2328]]</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Nom Na Tong"/>
+        <family val="2"/>
+      </rPr>
+      <t>死</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Nom Na Tong"/>
+        <family val="2"/>
+      </rPr>
+      <t>期</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Nom Na Tong"/>
+        <family val="2"/>
+      </rPr>
+      <t>有</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Nom Na Tong"/>
+        <family val="2"/>
+      </rPr>
+      <t>定</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Nom Na Tong"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">tử </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Nom Na Tong"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">kỳ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Nom Na Tong"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">hữu </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Nom Na Tong"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">định </t>
+    </r>
+  </si>
+  <si>
+    <t>[[1722, 1198], [1999, 1195], [2006, 2324], [1733, 2328]]</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Nom Na Tong"/>
+        <family val="2"/>
+      </rPr>
+      <t>人</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Nom Na Tong"/>
+        <family val="2"/>
+      </rPr>
+      <t>生</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Nom Na Tong"/>
+        <family val="2"/>
+      </rPr>
+      <t>罪</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Nom Na Tong"/>
+        <family val="2"/>
+      </rPr>
+      <t>種</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Nom Na Tong"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">nhân </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Nom Na Tong"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">sinh </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Nom Na Tong"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">tội </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Nom Na Tong"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">chủng </t>
+    </r>
+  </si>
+  <si>
+    <t>[[1364, 1198], [1653, 1191], [1687, 2332], [1395, 2344]]</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Nom Na Tong"/>
+        <family val="2"/>
+      </rPr>
+      <t>聖</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Nom Na Tong"/>
+        <family val="2"/>
+      </rPr>
+      <t>秘</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Nom Na Tong"/>
+        <family val="2"/>
+      </rPr>
+      <t>跡</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Nom Na Tong"/>
+        <family val="2"/>
+      </rPr>
+      <t>論</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Nom Na Tong"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">thánh </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Nom Na Tong"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">bí </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Nom Na Tong"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">tích </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Nom Na Tong"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">luận </t>
+    </r>
+  </si>
+  <si>
+    <t>[[1030, 1187], [1322, 1187], [1322, 2344], [1030, 2344]]</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Nom Na Tong"/>
+        <family val="2"/>
+      </rPr>
+      <t>聖</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Nom Na Tong"/>
+        <family val="2"/>
+      </rPr>
+      <t>體</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Nom Na Tong"/>
+        <family val="2"/>
+      </rPr>
+      <t>解</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Nom Na Tong"/>
+        <family val="2"/>
+      </rPr>
+      <t>論</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Nom Na Tong"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">thánh </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Nom Na Tong"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">thể </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Nom Na Tong"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">giải </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Nom Na Tong"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">luận </t>
+    </r>
+  </si>
+  <si>
+    <t>[[672, 1183], [957, 1179], [964, 2336], [680, 2340]]</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Nom Na Tong"/>
+        <family val="2"/>
+      </rPr>
+      <t>告</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Nom Na Tong"/>
+        <family val="2"/>
+      </rPr>
+      <t>解</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Nom Na Tong"/>
+        <family val="2"/>
+      </rPr>
+      <t>解</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Nom Na Tong"/>
+        <family val="2"/>
+      </rPr>
+      <t>論</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Nom Na Tong"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">cáo </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Nom Na Tong"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">giải </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Nom Na Tong"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">giải </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Nom Na Tong"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">luận </t>
+    </r>
+  </si>
+  <si>
     <t>[[2929, 1164], [3194, 1168], [3179, 2320], [2917, 2317]]</t>
   </si>
   <si>
@@ -1547,6 +2271,44 @@
     </r>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Nom Na Tong"/>
+        <family val="2"/>
+      </rPr>
+      <t>貳</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Nom Na Tong"/>
+        <family val="2"/>
+      </rPr>
+      <t>五</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Nom Na Tong"/>
+        <family val="2"/>
+      </rPr>
+      <t>十</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Nom Na Tong"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">nhị </t>
+    </r>
     <r>
       <rPr>
         <sz val="11"/>
@@ -1909,7 +2671,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1934,7 +2696,7 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>5</v>
@@ -1943,21 +2705,21 @@
         <v>6</v>
       </c>
       <c r="D2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
         <v>10</v>
@@ -1968,7 +2730,7 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>12</v>
@@ -1977,95 +2739,95 @@
         <v>13</v>
       </c>
       <c r="D4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" t="s">
         <v>14</v>
-      </c>
-      <c r="E4" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" t="s">
         <v>16</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" t="s">
         <v>17</v>
-      </c>
-      <c r="D5" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" t="s">
         <v>20</v>
-      </c>
-      <c r="C6" t="s">
-        <v>21</v>
-      </c>
-      <c r="D6" t="s">
-        <v>22</v>
-      </c>
-      <c r="E6" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D7" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E7" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="E8" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C9" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="D9" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="E9" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -2073,16 +2835,16 @@
         <v>1</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C10" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D10" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="E10" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -2090,16 +2852,16 @@
         <v>1</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="C11" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="D11" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="E11" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -2107,16 +2869,16 @@
         <v>1</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="C12" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="D12" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="E12" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -2124,16 +2886,16 @@
         <v>1</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="C13" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="D13" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="E13" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -2141,16 +2903,16 @@
         <v>1</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="C14" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="D14" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="E14" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -2158,16 +2920,16 @@
         <v>1</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C15" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D15" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="E15" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -2175,16 +2937,16 @@
         <v>1</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C16" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D16" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="E16" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -2192,16 +2954,16 @@
         <v>1</v>
       </c>
       <c r="B17" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C17" t="s">
+        <v>58</v>
+      </c>
+      <c r="D17" t="s">
+        <v>59</v>
+      </c>
+      <c r="E17" t="s">
         <v>60</v>
-      </c>
-      <c r="C17" t="s">
-        <v>61</v>
-      </c>
-      <c r="D17" t="s">
-        <v>62</v>
-      </c>
-      <c r="E17" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -2209,16 +2971,16 @@
         <v>1</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C18" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D18" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E18" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -2226,6 +2988,15 @@
         <v>1</v>
       </c>
       <c r="B19" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C19" t="s">
+        <v>65</v>
+      </c>
+      <c r="D19" t="s">
+        <v>66</v>
+      </c>
+      <c r="E19" t="s">
         <v>67</v>
       </c>
     </row>
@@ -2235,6 +3006,133 @@
       </c>
       <c r="B20" s="1" t="s">
         <v>68</v>
+      </c>
+      <c r="C20" t="s">
+        <v>69</v>
+      </c>
+      <c r="D20" t="s">
+        <v>69</v>
+      </c>
+      <c r="E20" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="1">
+        <v>1</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C21" t="s">
+        <v>72</v>
+      </c>
+      <c r="D21" t="s">
+        <v>73</v>
+      </c>
+      <c r="E21" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="1">
+        <v>1</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C22" t="s">
+        <v>76</v>
+      </c>
+      <c r="D22" t="s">
+        <v>76</v>
+      </c>
+      <c r="E22" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="1">
+        <v>1</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C23" t="s">
+        <v>79</v>
+      </c>
+      <c r="D23" t="s">
+        <v>80</v>
+      </c>
+      <c r="E23" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="1">
+        <v>1</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C24" t="s">
+        <v>83</v>
+      </c>
+      <c r="D24" t="s">
+        <v>83</v>
+      </c>
+      <c r="E24" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="1">
+        <v>1</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C25" t="s">
+        <v>86</v>
+      </c>
+      <c r="D25" t="s">
+        <v>87</v>
+      </c>
+      <c r="E25" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="1">
+        <v>1</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C26" t="s">
+        <v>90</v>
+      </c>
+      <c r="D26" t="s">
+        <v>91</v>
+      </c>
+      <c r="E26" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="1">
+        <v>1</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="1">
+        <v>1</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>94</v>
       </c>
     </row>
   </sheetData>

--- a/sample_output.xlsx
+++ b/sample_output.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\multimodal_alignments\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57AA322A-8B67-41CB-9614-CD62C375CE16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12432" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Result" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="92">
   <si>
     <t>page_id</t>
   </si>
@@ -2274,44 +2280,6 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
-      <t>貳</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
-      <t>五</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
-      <t>十</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">nhị </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Nom Na Tong"/>
         <family val="2"/>
@@ -2327,23 +2295,17 @@
       </rPr>
       <t xml:space="preserve">thập </t>
     </r>
-  </si>
-  <si>
-    <t>[[511, 4457], [645, 4457], [645, 4591], [511, 4591]]</t>
-  </si>
-  <si>
-    <t>[[518, 4730], [807, 4730], [807, 4980], [518, 4980]]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -2352,6 +2314,37 @@
       <color theme="1"/>
       <name val="Nom Na Tong"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Nom Na Tong"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF008000"/>
+      <name val="Nom Na Tong"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Nom Na Tong"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Nom Na Tong"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -2383,13 +2376,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2427,7 +2428,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -2461,6 +2462,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -2495,9 +2497,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2670,12 +2673,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
@@ -3113,29 +3118,14 @@
         <v>90</v>
       </c>
       <c r="D26" t="s">
+        <v>90</v>
+      </c>
+      <c r="E26" t="s">
         <v>91</v>
-      </c>
-      <c r="E26" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
-      <c r="A27" s="1">
-        <v>1</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5">
-      <c r="A28" s="1">
-        <v>1</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>94</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/sample_output.xlsx
+++ b/sample_output.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\multimodal_alignments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57AA322A-8B67-41CB-9614-CD62C375CE16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69CE8F3A-20AE-4221-8935-77ADC544A01C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12432" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="95">
   <si>
     <t>page_id</t>
   </si>
@@ -1057,6 +1057,1108 @@
         <rFont val="Nom Na Tong"/>
         <family val="2"/>
       </rPr>
+      <t xml:space="preserve">kiến </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Nom Na Tong"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">tam </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Nom Na Tong"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">trang </t>
+    </r>
+  </si>
+  <si>
+    <t>[[2252, 1141], [2514, 1141], [2514, 2324], [2252, 2324]]</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Nom Na Tong"/>
+        <family val="2"/>
+      </rPr>
+      <t>十</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Nom Na Tong"/>
+        <family val="2"/>
+      </rPr>
+      <t>誠</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Nom Na Tong"/>
+        <family val="2"/>
+      </rPr>
+      <t>解</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF008000"/>
+        <rFont val="Nom Na Tong"/>
+        <family val="2"/>
+      </rPr>
+      <t>義</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Nom Na Tong"/>
+        <family val="2"/>
+      </rPr>
+      <t>十</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Nom Na Tong"/>
+        <family val="2"/>
+      </rPr>
+      <t>誡</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Nom Na Tong"/>
+        <family val="2"/>
+      </rPr>
+      <t>解</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF008000"/>
+        <rFont val="Nom Na Tong"/>
+        <family val="2"/>
+      </rPr>
+      <t>X</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Nom Na Tong"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">thập </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Nom Na Tong"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">giới </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Nom Na Tong"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">giải </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF008000"/>
+        <rFont val="Nom Na Tong"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">nghĩa </t>
+    </r>
+  </si>
+  <si>
+    <t>[[2337, 3262], [2529, 3262], [2529, 4134], [2337, 4134]]</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF008000"/>
+        <rFont val="Nom Na Tong"/>
+        <family val="2"/>
+      </rPr>
+      <t>廾</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF008000"/>
+        <rFont val="Nom Na Tong"/>
+        <family val="2"/>
+      </rPr>
+      <t>七</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Nom Na Tong"/>
+        <family val="2"/>
+      </rPr>
+      <t>張</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF008000"/>
+        <rFont val="Nom Na Tong"/>
+        <family val="2"/>
+      </rPr>
+      <t>見</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF008000"/>
+        <rFont val="Nom Na Tong"/>
+        <family val="2"/>
+      </rPr>
+      <t>绿</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Nom Na Tong"/>
+        <family val="2"/>
+      </rPr>
+      <t>張</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF008000"/>
+        <rFont val="Nom Na Tong"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">kiến </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF008000"/>
+        <rFont val="Nom Na Tong"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">lục </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Nom Na Tong"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">trang </t>
+    </r>
+  </si>
+  <si>
+    <t>[[1891, 1114], [2183, 1114], [2183, 2320], [1891, 2320]]</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF008000"/>
+        <rFont val="Nom Na Tong"/>
+        <family val="2"/>
+      </rPr>
+      <t>㑹</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Nom Na Tong"/>
+        <family val="2"/>
+      </rPr>
+      <t>聖</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Nom Na Tong"/>
+        <family val="2"/>
+      </rPr>
+      <t>條</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Nom Na Tong"/>
+        <family val="2"/>
+      </rPr>
+      <t>律</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF008000"/>
+        <rFont val="Nom Na Tong"/>
+        <family val="2"/>
+      </rPr>
+      <t>聵</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Nom Na Tong"/>
+        <family val="2"/>
+      </rPr>
+      <t>聖</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Nom Na Tong"/>
+        <family val="2"/>
+      </rPr>
+      <t>條</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Nom Na Tong"/>
+        <family val="2"/>
+      </rPr>
+      <t>律</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF008000"/>
+        <rFont val="Nom Na Tong"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">hội </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Nom Na Tong"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">thánh </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Nom Na Tong"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">điều </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Nom Na Tong"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">luật </t>
+    </r>
+  </si>
+  <si>
+    <t>[[2025, 3266], [2214, 3273], [2179, 4073], [1991, 4065]]</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF008000"/>
+        <rFont val="Nom Na Tong"/>
+        <family val="2"/>
+      </rPr>
+      <t>三</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Nom Na Tong"/>
+        <family val="2"/>
+      </rPr>
+      <t>十</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Nom Na Tong"/>
+        <family val="2"/>
+      </rPr>
+      <t>八</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF008000"/>
+        <rFont val="Nom Na Tong"/>
+        <family val="2"/>
+      </rPr>
+      <t>見</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Nom Na Tong"/>
+        <family val="2"/>
+      </rPr>
+      <t>八</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF008000"/>
+        <rFont val="Nom Na Tong"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">kiến </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Nom Na Tong"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">bát </t>
+    </r>
+  </si>
+  <si>
+    <t>[[1556, 1141], [1829, 1141], [1829, 2297], [1556, 2297]]</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Nom Na Tong"/>
+        <family val="2"/>
+      </rPr>
+      <t>天</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Nom Na Tong"/>
+        <family val="2"/>
+      </rPr>
+      <t>主</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Nom Na Tong"/>
+        <family val="2"/>
+      </rPr>
+      <t>經</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Nom Na Tong"/>
+        <family val="2"/>
+      </rPr>
+      <t>解</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Nom Na Tong"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">thiên </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Nom Na Tong"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">chủ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Nom Na Tong"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">kinh </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Nom Na Tong"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">giải </t>
+    </r>
+  </si>
+  <si>
+    <t>[[1653, 3277], [1852, 3277], [1852, 4115], [1653, 4115]]</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF008000"/>
+        <rFont val="Nom Na Tong"/>
+        <family val="2"/>
+      </rPr>
+      <t>三</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Nom Na Tong"/>
+        <family val="2"/>
+      </rPr>
+      <t>十</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF008000"/>
+        <rFont val="Nom Na Tong"/>
+        <family val="2"/>
+      </rPr>
+      <t>九</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF008000"/>
+        <rFont val="Nom Na Tong"/>
+        <family val="2"/>
+      </rPr>
+      <t>󰇤</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Nom Na Tong"/>
+        <family val="2"/>
+      </rPr>
+      <t>一</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF008000"/>
+        <rFont val="Nom Na Tong"/>
+        <family val="2"/>
+      </rPr>
+      <t>妝</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF008000"/>
+        <rFont val="Nom Na Tong"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">thập </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Nom Na Tong"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">nhất </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF008000"/>
+        <rFont val="Nom Na Tong"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">trang </t>
+    </r>
+  </si>
+  <si>
+    <t>[[1230, 1137], [1503, 1137], [1503, 2301], [1230, 2301]]</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Nom Na Tong"/>
+        <family val="2"/>
+      </rPr>
+      <t>聖</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Nom Na Tong"/>
+        <family val="2"/>
+      </rPr>
+      <t>母</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Nom Na Tong"/>
+        <family val="2"/>
+      </rPr>
+      <t>經</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Nom Na Tong"/>
+        <family val="2"/>
+      </rPr>
+      <t>解</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Nom Na Tong"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">thánh </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Nom Na Tong"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">mẫu </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Nom Na Tong"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">kinh </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Nom Na Tong"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">giải </t>
+    </r>
+  </si>
+  <si>
+    <t>[[1349, 3250], [1526, 3254], [1514, 4096], [1341, 4092]]</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Nom Na Tong"/>
+        <family val="2"/>
+      </rPr>
+      <t>四</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Nom Na Tong"/>
+        <family val="2"/>
+      </rPr>
+      <t>十</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Nom Na Tong"/>
+        <family val="2"/>
+      </rPr>
+      <t>四</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Nom Na Tong"/>
+        <family val="2"/>
+      </rPr>
+      <t>十</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Nom Na Tong"/>
+        <family val="2"/>
+      </rPr>
+      <t>四</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Nom Na Tong"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">thập </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Nom Na Tong"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">tứ </t>
+    </r>
+  </si>
+  <si>
+    <t>[[864, 1152], [1160, 1152], [1160, 2301], [864, 2301]]</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Nom Na Tong"/>
+        <family val="2"/>
+      </rPr>
+      <t>正</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Nom Na Tong"/>
+        <family val="2"/>
+      </rPr>
+      <t>役</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Nom Na Tong"/>
+        <family val="2"/>
+      </rPr>
+      <t>敎</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Nom Na Tong"/>
+        <family val="2"/>
+      </rPr>
+      <t>友</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Nom Na Tong"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">chính </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Nom Na Tong"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">dịch </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Nom Na Tong"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">giáo </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Nom Na Tong"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">hữu </t>
+    </r>
+  </si>
+  <si>
+    <t>[[991, 3254], [1199, 3254], [1199, 4130], [991, 4130]]</t>
+  </si>
+  <si>
+    <t>[[499, 1141], [791, 1133], [830, 2851], [538, 2858]]</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Nom Na Tong"/>
+        <family val="2"/>
+      </rPr>
+      <t>經</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Nom Na Tong"/>
+        <family val="2"/>
+      </rPr>
+      <t>畧</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Nom Na Tong"/>
+        <family val="2"/>
+      </rPr>
+      <t>逴</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Nom Na Tong"/>
+        <family val="2"/>
+      </rPr>
+      <t>禮</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Nom Na Tong"/>
+        <family val="2"/>
+      </rPr>
+      <t>五</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Nom Na Tong"/>
+        <family val="2"/>
+      </rPr>
+      <t>十</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Nom Na Tong"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">kinh </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Nom Na Tong"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">trước </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Nom Na Tong"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">rước </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Nom Na Tong"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">lễ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Nom Na Tong"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">ngũ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Nom Na Tong"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">thập </t>
+    </r>
+  </si>
+  <si>
+    <t>[[530, 3216], [807, 3216], [807, 4403], [530, 4403]]</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Nom Na Tong"/>
+        <family val="2"/>
+      </rPr>
+      <t>經</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF008000"/>
+        <rFont val="Nom Na Tong"/>
+        <family val="2"/>
+      </rPr>
+      <t>娄</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Nom Na Tong"/>
+        <family val="2"/>
+      </rPr>
+      <t>連</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Nom Na Tong"/>
+        <family val="2"/>
+      </rPr>
+      <t>禮</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Nom Na Tong"/>
+        <family val="2"/>
+      </rPr>
+      <t>經</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF008000"/>
+        <rFont val="Nom Na Tong"/>
+        <family val="2"/>
+      </rPr>
+      <t>差</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Nom Na Tong"/>
+        <family val="2"/>
+      </rPr>
+      <t>逴</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Nom Na Tong"/>
+        <family val="2"/>
+      </rPr>
+      <t>禮</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Nom Na Tong"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">kinh </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF008000"/>
+        <rFont val="Nom Na Tong"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">sau </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Nom Na Tong"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">rước </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Nom Na Tong"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">lễ </t>
+    </r>
+  </si>
+  <si>
+    <t>[[665, 4442], [807, 4442], [807, 4714], [665, 4714]]</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Nom Na Tong"/>
+        <family val="2"/>
+      </rPr>
+      <t>五</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Nom Na Tong"/>
+        <family val="2"/>
+      </rPr>
+      <t>十</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Nom Na Tong"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">ngũ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Nom Na Tong"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">thập </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF008000"/>
+        <rFont val="Nom Na Tong"/>
+        <family val="2"/>
+      </rPr>
       <t>卅</t>
     </r>
     <r>
@@ -1066,17 +2168,9 @@
         <rFont val="Nom Na Tong"/>
         <family val="2"/>
       </rPr>
-      <t>三</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
-      <t>張</t>
-    </r>
+      <t>三張</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1095,19 +2189,158 @@
         <rFont val="Nom Na Tong"/>
         <family val="2"/>
       </rPr>
-      <t>三</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
-      <t>張</t>
-    </r>
-  </si>
-  <si>
+      <t>三張</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>giao = r</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ỗ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ng -&gt; đ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ỏ</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>th</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ừ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>a/thi</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ế</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>u -&gt; đ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ỏ</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>giao khác r</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ỗ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ng -&gt; xanh d</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t>ươ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ng</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Nom Na Tong"/>
+        <family val="2"/>
+      </rPr>
+      <t>四</t>
+    </r>
     <r>
       <rPr>
         <sz val="11"/>
@@ -1115,1193 +2348,85 @@
         <rFont val="Nom Na Tong"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">kiến </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">tam </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
+      <t>十</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Nom Na Tong"/>
+        <family val="2"/>
+      </rPr>
+      <t>八</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Nom Na Tong"/>
+        <family val="2"/>
+      </rPr>
+      <t>󰇤</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Nom Na Tong"/>
+        <family val="2"/>
+      </rPr>
+      <t>匹</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF008000"/>
+        <rFont val="Nom Na Tong"/>
+        <family val="2"/>
+      </rPr>
+      <t>妝</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Nom Na Tong"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">thập </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Nom Na Tong"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">thất </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF008000"/>
         <rFont val="Nom Na Tong"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">trang </t>
     </r>
-  </si>
-  <si>
-    <t>[[2252, 1141], [2514, 1141], [2514, 2324], [2252, 2324]]</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
-      <t>十</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
-      <t>誠</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
-      <t>解</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF008000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
-      <t>義</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
-      <t>十</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
-      <t>誡</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
-      <t>解</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF008000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
-      <t>X</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">thập </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">giới </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">giải </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF008000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">nghĩa </t>
-    </r>
-  </si>
-  <si>
-    <t>[[2337, 3262], [2529, 3262], [2529, 4134], [2337, 4134]]</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF008000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
-      <t>廾</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF008000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
-      <t>七</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
-      <t>張</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF008000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
-      <t>見</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF008000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
-      <t>绿</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
-      <t>張</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF008000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">kiến </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF008000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">lục </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">trang </t>
-    </r>
-  </si>
-  <si>
-    <t>[[1891, 1114], [2183, 1114], [2183, 2320], [1891, 2320]]</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF008000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
-      <t>㑹</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
-      <t>聖</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
-      <t>條</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
-      <t>律</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF008000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
-      <t>聵</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
-      <t>聖</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
-      <t>條</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
-      <t>律</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF008000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">hội </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">thánh </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">điều </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">luật </t>
-    </r>
-  </si>
-  <si>
-    <t>[[2025, 3266], [2214, 3273], [2179, 4073], [1991, 4065]]</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF008000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
-      <t>三</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
-      <t>十</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
-      <t>八</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF008000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
-      <t>見</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
-      <t>八</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF008000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">kiến </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">bát </t>
-    </r>
-  </si>
-  <si>
-    <t>[[1556, 1141], [1829, 1141], [1829, 2297], [1556, 2297]]</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
-      <t>天</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
-      <t>主</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
-      <t>經</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
-      <t>解</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">thiên </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">chủ </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">kinh </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">giải </t>
-    </r>
-  </si>
-  <si>
-    <t>[[1653, 3277], [1852, 3277], [1852, 4115], [1653, 4115]]</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF008000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
-      <t>三</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
-      <t>十</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF008000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
-      <t>九</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF008000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
-      <t>󰇤</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
-      <t>一</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF008000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
-      <t>妝</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF008000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">thập </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">nhất </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF008000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">trang </t>
-    </r>
-  </si>
-  <si>
-    <t>[[1230, 1137], [1503, 1137], [1503, 2301], [1230, 2301]]</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
-      <t>聖</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
-      <t>母</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
-      <t>經</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
-      <t>解</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">thánh </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">mẫu </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">kinh </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">giải </t>
-    </r>
-  </si>
-  <si>
-    <t>[[1349, 3250], [1526, 3254], [1514, 4096], [1341, 4092]]</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
-      <t>四</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
-      <t>十</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
-      <t>四</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
-      <t>十</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
-      <t>四</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">thập </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">tứ </t>
-    </r>
-  </si>
-  <si>
-    <t>[[864, 1152], [1160, 1152], [1160, 2301], [864, 2301]]</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
-      <t>正</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
-      <t>役</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
-      <t>敎</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
-      <t>友</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">chính </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">dịch </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">giáo </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">hữu </t>
-    </r>
-  </si>
-  <si>
-    <t>[[991, 3254], [1199, 3254], [1199, 4130], [991, 4130]]</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
-      <t>四</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF008000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
-      <t>十</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
-      <t>八</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
-      <t>󰇤</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
-      <t>匹</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF008000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
-      <t>妝</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">thập </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">thất </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF008000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">trang </t>
-    </r>
-  </si>
-  <si>
-    <t>[[499, 1141], [791, 1133], [830, 2851], [538, 2858]]</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
-      <t>經</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
-      <t>畧</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
-      <t>逴</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
-      <t>禮</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
-      <t>五</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
-      <t>十</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">kinh </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">trước </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">rước </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">lễ </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">ngũ </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">thập </t>
-    </r>
-  </si>
-  <si>
-    <t>[[530, 3216], [807, 3216], [807, 4403], [530, 4403]]</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
-      <t>經</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF008000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
-      <t>娄</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
-      <t>連</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
-      <t>禮</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
-      <t>經</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF008000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
-      <t>差</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
-      <t>逴</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
-      <t>禮</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">kinh </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF008000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">sau </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">rước </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">lễ </t>
-    </r>
-  </si>
-  <si>
-    <t>[[665, 4442], [807, 4442], [807, 4714], [665, 4714]]</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
-      <t>五</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
-      <t>十</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">ngũ </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">thập </t>
-    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2345,6 +2470,20 @@
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="163"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+      <charset val="238"/>
     </font>
   </fonts>
   <fills count="2">
@@ -2674,13 +2813,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E26"/>
+  <dimension ref="A1:H26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView tabSelected="1" topLeftCell="B15" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="6.796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="45.09765625" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="12.09765625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
@@ -2893,14 +3037,14 @@
       <c r="B13" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="E13" t="s">
         <v>42</v>
-      </c>
-      <c r="D13" t="s">
-        <v>43</v>
-      </c>
-      <c r="E13" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -2908,16 +3052,16 @@
         <v>1</v>
       </c>
       <c r="B14" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C14" t="s">
+        <v>44</v>
+      </c>
+      <c r="D14" t="s">
         <v>45</v>
       </c>
-      <c r="C14" t="s">
+      <c r="E14" t="s">
         <v>46</v>
-      </c>
-      <c r="D14" t="s">
-        <v>47</v>
-      </c>
-      <c r="E14" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -2925,16 +3069,16 @@
         <v>1</v>
       </c>
       <c r="B15" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C15" t="s">
+        <v>48</v>
+      </c>
+      <c r="D15" t="s">
         <v>49</v>
       </c>
-      <c r="C15" t="s">
+      <c r="E15" t="s">
         <v>50</v>
-      </c>
-      <c r="D15" t="s">
-        <v>51</v>
-      </c>
-      <c r="E15" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -2942,186 +3086,195 @@
         <v>1</v>
       </c>
       <c r="B16" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C16" t="s">
+        <v>52</v>
+      </c>
+      <c r="D16" t="s">
         <v>53</v>
       </c>
-      <c r="C16" t="s">
+      <c r="E16" t="s">
         <v>54</v>
       </c>
-      <c r="D16" t="s">
-        <v>55</v>
-      </c>
-      <c r="E16" t="s">
-        <v>56</v>
-      </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:8">
       <c r="A17" s="1">
         <v>1</v>
       </c>
       <c r="B17" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C17" t="s">
+        <v>56</v>
+      </c>
+      <c r="D17" t="s">
         <v>57</v>
       </c>
-      <c r="C17" t="s">
+      <c r="E17" t="s">
         <v>58</v>
       </c>
-      <c r="D17" t="s">
-        <v>59</v>
-      </c>
-      <c r="E17" t="s">
-        <v>60</v>
-      </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:8">
       <c r="A18" s="1">
         <v>1</v>
       </c>
       <c r="B18" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C18" t="s">
+        <v>60</v>
+      </c>
+      <c r="D18" t="s">
+        <v>60</v>
+      </c>
+      <c r="E18" t="s">
         <v>61</v>
       </c>
-      <c r="C18" t="s">
-        <v>62</v>
-      </c>
-      <c r="D18" t="s">
-        <v>62</v>
-      </c>
-      <c r="E18" t="s">
-        <v>63</v>
+      <c r="H18" t="s">
+        <v>89</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:8">
       <c r="A19" s="1">
         <v>1</v>
       </c>
       <c r="B19" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C19" t="s">
+        <v>63</v>
+      </c>
+      <c r="D19" t="s">
         <v>64</v>
       </c>
-      <c r="C19" t="s">
+      <c r="E19" t="s">
         <v>65</v>
       </c>
-      <c r="D19" t="s">
-        <v>66</v>
-      </c>
-      <c r="E19" t="s">
-        <v>67</v>
+      <c r="H19" t="s">
+        <v>90</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:8">
       <c r="A20" s="1">
         <v>1</v>
       </c>
       <c r="B20" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C20" t="s">
+        <v>67</v>
+      </c>
+      <c r="D20" t="s">
+        <v>67</v>
+      </c>
+      <c r="E20" t="s">
         <v>68</v>
       </c>
-      <c r="C20" t="s">
-        <v>69</v>
-      </c>
-      <c r="D20" t="s">
-        <v>69</v>
-      </c>
-      <c r="E20" t="s">
-        <v>70</v>
+      <c r="H20" t="s">
+        <v>91</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:8">
       <c r="A21" s="1">
         <v>1</v>
       </c>
       <c r="B21" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C21" t="s">
+        <v>70</v>
+      </c>
+      <c r="D21" t="s">
         <v>71</v>
       </c>
-      <c r="C21" t="s">
+      <c r="E21" t="s">
         <v>72</v>
       </c>
-      <c r="D21" t="s">
-        <v>73</v>
-      </c>
-      <c r="E21" t="s">
-        <v>74</v>
-      </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:8">
       <c r="A22" s="1">
         <v>1</v>
       </c>
       <c r="B22" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C22" t="s">
+        <v>74</v>
+      </c>
+      <c r="D22" t="s">
+        <v>74</v>
+      </c>
+      <c r="E22" t="s">
         <v>75</v>
       </c>
-      <c r="C22" t="s">
-        <v>76</v>
-      </c>
-      <c r="D22" t="s">
-        <v>76</v>
-      </c>
-      <c r="E22" t="s">
-        <v>77</v>
-      </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:8">
       <c r="A23" s="1">
         <v>1</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="C23" t="s">
-        <v>79</v>
-      </c>
-      <c r="D23" t="s">
-        <v>80</v>
-      </c>
-      <c r="E23" t="s">
-        <v>81</v>
+        <v>76</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>94</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:8">
       <c r="A24" s="1">
         <v>1</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="C24" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="D24" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="E24" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:8">
       <c r="A25" s="1">
         <v>1</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="C25" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="D25" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="E25" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:8">
       <c r="A26" s="1">
         <v>1</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="C26" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="D26" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="E26" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
   </sheetData>
